--- a/Numerical methods/LW7/LW7.xlsx
+++ b/Numerical methods/LW7/LW7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\studies\Numerical methods\LW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\studies\Numerical methods\LW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63F320-5303-4DD8-A652-59F8760F533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC297F17-7492-4B26-9972-1F273BD7A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4320" yWindow="2340" windowWidth="21585" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>А</t>
   </si>
@@ -130,11 +127,66 @@
   <si>
     <t>В4</t>
   </si>
+  <si>
+    <t xml:space="preserve">iter </t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>lambda^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda </t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1 блок</t>
+  </si>
+  <si>
+    <t>2 блок</t>
+  </si>
+  <si>
+    <t>lambda 1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>lambda 2</t>
+  </si>
+  <si>
+    <t>lambda 3</t>
+  </si>
+  <si>
+    <t>lambda 4</t>
+  </si>
+  <si>
+    <t>lambda 5</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,6 +241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,19 +523,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -506,7 +560,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>-1.9911000000000001</v>
@@ -554,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1.8242</v>
@@ -602,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>7.2351000000000001</v>
@@ -650,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>14.2707</v>
@@ -698,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>-0.92269999999999996</v>
       </c>
@@ -745,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -796,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
@@ -843,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7.2351000000000001</v>
       </c>
@@ -890,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>14.2707</v>
       </c>
@@ -937,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-0.92269999999999996</v>
       </c>
@@ -984,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1082,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1129,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>14.2707</v>
       </c>
@@ -1176,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-0.92269999999999996</v>
       </c>
@@ -1223,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1328,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1321,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1368,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0</v>
       </c>
@@ -1415,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>-0.92269999999999996</v>
       </c>
@@ -1462,7 +1516,7 @@
         <v>0.99838712035017374</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1567,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0</v>
       </c>
@@ -1560,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0</v>
       </c>
@@ -1607,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0</v>
       </c>
@@ -1654,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0</v>
       </c>
@@ -1701,7 +1755,7 @@
         <v>0.99838712035017374</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1806,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1799,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1846,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1893,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1940,7 +1994,7 @@
         <v>0.99838712035017374</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +2045,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0</v>
       </c>
@@ -2038,7 +2092,7 @@
         <v>-0.35620855034701637</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0</v>
       </c>
@@ -2085,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0</v>
       </c>
@@ -2132,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -2179,7 +2233,7 @@
         <v>0.93268026879856769</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2284,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0</v>
       </c>
@@ -2277,7 +2331,7 @@
         <v>-0.35620855034701637</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>0</v>
       </c>
@@ -2324,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0</v>
       </c>
@@ -2371,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0</v>
       </c>
@@ -2418,7 +2472,7 @@
         <v>0.93268026879856769</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2523,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
@@ -2516,7 +2570,7 @@
         <v>-0.35620855034701637</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
@@ -2563,7 +2617,7 @@
         <v>-0.3414169391964037</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0</v>
       </c>
@@ -2610,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0</v>
       </c>
@@ -2657,7 +2711,7 @@
         <v>0.8679438640215279</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2762,7 @@
         <v>-5.6772862521522527E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>0</v>
       </c>
@@ -2755,7 +2809,7 @@
         <v>-0.35620855034701637</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0</v>
       </c>
@@ -2802,7 +2856,7 @@
         <v>-0.3414169391964037</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0</v>
       </c>
@@ -2849,7 +2903,7 @@
         <v>0.84105409517027696</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0</v>
       </c>
@@ -2896,7 +2950,7 @@
         <v>0.21436824731149307</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2916,7 +2970,7 @@
         <v>9.8107000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0</v>
       </c>
@@ -2933,7 +2987,7 @@
         <v>-4.17197</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>0</v>
       </c>
@@ -2950,7 +3004,7 @@
         <v>-2.3018399999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0</v>
       </c>
@@ -2967,7 +3021,7 @@
         <v>-16.495170000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0</v>
       </c>
@@ -2984,7 +3038,7 @@
         <v>1.6772199999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3076,7 @@
         <v>9.8107057854018702</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>-4.6067337016846788E-2</v>
       </c>
@@ -3054,7 +3108,7 @@
         <v>-4.1719736501925295</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>-0.70966491127315312</v>
       </c>
@@ -3086,7 +3140,7 @@
         <v>-2.3018500632150305</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>-0.44995449012090039</v>
       </c>
@@ -3118,7 +3172,7 @@
         <v>-16.495165812174204</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>0.52610356396686142</v>
       </c>
@@ -3150,7 +3204,7 @@
         <v>1.677225662997698</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3188,7 +3242,7 @@
         <v>0.52610356400000002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>1.8242</v>
       </c>
@@ -3220,7 +3274,7 @@
         <v>-4.0604420000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>7.2351000000000001</v>
       </c>
@@ -3252,7 +3306,7 @@
         <v>-0.69213029999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>14.2707</v>
       </c>
@@ -3284,7 +3338,7 @@
         <v>0.44335767599999998</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>-0.92269999999999996</v>
       </c>
@@ -3316,24 +3370,24 @@
         <v>0.21436824700000001</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="B80" cm="1">
+      <c r="B80" s="5" cm="1">
         <f t="array" ref="B80:F84">MMULT(B68:F72,B74:F78)</f>
         <v>16.252480138119896</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>-8.038853887461352</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>4.2179834538818124</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="5">
         <v>-14.258270717298489</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>9.8107057854018702</v>
       </c>
       <c r="H80" t="s">
@@ -3356,20 +3410,20 @@
         <v>1.739096602787995</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B81" s="5">
         <v>-2.2346518173121943E-6</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>10.427021542686299</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>-4.9886821403260253</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="5">
         <v>-3.2406396701644469</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="5">
         <v>-4.1719736501925295</v>
       </c>
       <c r="I81">
@@ -3388,20 +3442,20 @@
         <v>0.6983325778224464</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B82" s="5">
         <v>3.5979539496078239E-6</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>-7.4105370737598264E-6</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>3.5172471578072044</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="5">
         <v>2.567036274727216</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>-2.3018500632150305</v>
       </c>
       <c r="I82">
@@ -3420,20 +3474,20 @@
         <v>-1.7897194626477817</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B83" s="5">
         <v>4.3413613026732634E-7</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>3.5786374983359792E-6</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <v>4.5937545016250247E-6</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>5.0883732034713072</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>-16.495165812174204</v>
       </c>
       <c r="I83">
@@ -3452,20 +3506,20 @@
         <v>-1.2800735574030173</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B84" s="5">
         <v>-5.2347408732722478E-7</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>-3.2804179063150585E-6</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>1.4824352224107606E-6</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="5">
         <v>3.3520694673327966E-6</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>1.677225662997698</v>
       </c>
       <c r="I84">
@@ -3482,6 +3536,238 @@
       </c>
       <c r="M84">
         <v>0.35954424312550637</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86">
+        <v>-7.02006</v>
+      </c>
+      <c r="J86">
+        <v>7.2618879999999999</v>
+      </c>
+      <c r="K86">
+        <v>-5.0703990000000001</v>
+      </c>
+      <c r="L86">
+        <v>10.905260999999999</v>
+      </c>
+      <c r="M86">
+        <v>0.203737</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <v>-4.4236079999999998</v>
+      </c>
+      <c r="J87">
+        <v>-11.207571</v>
+      </c>
+      <c r="K87">
+        <v>-5.2247500000000002</v>
+      </c>
+      <c r="L87">
+        <v>-2.6167829999999999</v>
+      </c>
+      <c r="M87">
+        <v>-0.95530899999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="I88">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="J88">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="K88">
+        <v>-4.4479150000000001</v>
+      </c>
+      <c r="L88">
+        <v>-20.407346</v>
+      </c>
+      <c r="M88">
+        <v>7.6351000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K89">
+        <v>1.044244</v>
+      </c>
+      <c r="L89">
+        <v>-12.213957000000001</v>
+      </c>
+      <c r="M89">
+        <v>1.2407490000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>-0.11049200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94">
+        <f>-I86-J87</f>
+        <v>18.227630999999999</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94">
+        <f>I86*J87 - I87*J86</f>
+        <v>110.801566726164</v>
+      </c>
+      <c r="P94" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q94">
+        <f>K94^2 - 4 * H94 * N94</f>
+        <v>-110.95973503249502</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="G96" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96">
+        <f>-K88-L89</f>
+        <v>16.661872000000002</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96">
+        <f>K88*L89 - K89*L88</f>
+        <v>75.63689116607901</v>
+      </c>
+      <c r="Q96">
+        <f>K96^2 - 4 * H96 * N96</f>
+        <v>-24.929586119931969</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99">
+        <f>-K94 / 2</f>
+        <v>-9.1138154999999994</v>
+      </c>
+      <c r="I99">
+        <f>SQRT(-Q94) / 2</f>
+        <v>5.2668713443679023</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100">
+        <f>H99</f>
+        <v>-9.1138154999999994</v>
+      </c>
+      <c r="I100">
+        <f>-I99</f>
+        <v>-5.2668713443679023</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102">
+        <f>-K96 / 2</f>
+        <v>-8.3309360000000012</v>
+      </c>
+      <c r="I102">
+        <f>SQRT(-Q96) / 2</f>
+        <v>2.4964768234419865</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103">
+        <f>H102</f>
+        <v>-8.3309360000000012</v>
+      </c>
+      <c r="I103">
+        <f>-I102</f>
+        <v>-2.4964768234419865</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105">
+        <f>M90</f>
+        <v>-0.11049200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3497,15 +3783,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F8D69B-489E-4567-86B6-8E82A6CC2CEC}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3809,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>-1.9911000000000001</v>
       </c>
@@ -3531,7 +3826,7 @@
         <v>8.9283000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.8242</v>
       </c>
@@ -3548,7 +3843,7 @@
         <v>9.3071999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>7.2351000000000001</v>
       </c>
@@ -3565,7 +3860,7 @@
         <v>5.1837999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>14.2707</v>
       </c>
@@ -3582,7 +3877,7 @@
         <v>7.8380999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>-0.92269999999999996</v>
       </c>
@@ -3599,7 +3894,7 @@
         <v>-11.7988</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3917,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>-1.9911000000000001</v>
       </c>
@@ -3674,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>16.13006</v>
       </c>
@@ -3726,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3778,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
@@ -3830,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -3882,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3933,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -3980,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0</v>
       </c>
@@ -4027,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -4074,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0</v>
       </c>
@@ -4121,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4172,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4219,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>-1.0000000000000001E-5</v>
       </c>
@@ -4266,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0</v>
       </c>
@@ -4313,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
@@ -4360,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4411,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4458,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0</v>
       </c>
@@ -4505,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4552,7 +4847,7 @@
         <v>-0.81197299999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0</v>
       </c>
@@ -4599,7 +4894,7 @@
         <v>0.58369599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4619,7 +4914,7 @@
         <v>5.6466399999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4636,7 +4931,7 @@
         <v>-3.41716</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
@@ -4653,7 +4948,7 @@
         <v>1.8610599999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4670,7 +4965,7 @@
         <v>2.9185400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -4687,7 +4982,7 @@
         <v>0.73485999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -4706,8 +5001,26 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>-0.12250999999999999</v>
+      </c>
+      <c r="J39">
+        <v>-0.67064270331100007</v>
+      </c>
+      <c r="K39">
+        <v>4.8105171328533231E-2</v>
+      </c>
+      <c r="L39">
+        <v>-0.42610386545387707</v>
+      </c>
+      <c r="M39">
+        <v>-0.59274833808040639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>-0.67064270331100007</v>
       </c>
@@ -4723,8 +5036,23 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0.99246699999999999</v>
+      </c>
+      <c r="J40">
+        <v>-8.2784049829999998E-2</v>
+      </c>
+      <c r="K40">
+        <v>5.9380962182708392E-3</v>
+      </c>
+      <c r="L40">
+        <v>-5.2598206848947587E-2</v>
+      </c>
+      <c r="M40">
+        <v>-7.316877931279385E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>4.8105171328533231E-2</v>
       </c>
@@ -4740,8 +5068,23 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.73714599999999997</v>
+      </c>
+      <c r="K41">
+        <v>4.4432147682000003E-2</v>
+      </c>
+      <c r="L41">
+        <v>-0.39356911855520044</v>
+      </c>
+      <c r="M41">
+        <v>-0.5474896142865836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>-0.42610386545387707</v>
       </c>
@@ -4757,8 +5100,23 @@
       <c r="F42">
         <v>-0.81197299999999994</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.99783599999999995</v>
+      </c>
+      <c r="L42">
+        <v>3.8380346784000006E-2</v>
+      </c>
+      <c r="M42">
+        <v>5.3390472642000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>-0.59274833808040639</v>
       </c>
@@ -4774,8 +5132,23 @@
       <c r="F43">
         <v>0.58369599999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>-0.81197299999999994</v>
+      </c>
+      <c r="M43">
+        <v>0.58369599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -4783,173 +5156,562 @@
         <v>-1.9911000000000001</v>
       </c>
       <c r="C45">
-        <v>0.50449999999999995</v>
+        <v>-3.6618400000000002</v>
       </c>
       <c r="D45">
-        <v>-2.7829999999999999</v>
+        <v>7.8974700000000002</v>
       </c>
       <c r="E45">
-        <v>-2.2151999999999998</v>
+        <v>-4.1039000000000003</v>
       </c>
       <c r="F45">
-        <v>8.9283000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.027E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>16.252481919019999</v>
+      </c>
+      <c r="J45">
+        <v>-12.193065414809999</v>
+      </c>
+      <c r="K45">
+        <v>5.5138796439999749E-2</v>
+      </c>
+      <c r="L45">
+        <v>-14.191697613000001</v>
+      </c>
+      <c r="M45">
+        <v>5.6466432518899996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>1.8242</v>
+        <v>16.13006</v>
       </c>
       <c r="C46">
-        <v>-10.5715</v>
+        <v>-12.737629999999999</v>
       </c>
       <c r="D46">
-        <v>5.7942999999999998</v>
+        <v>1.0304199999999999</v>
       </c>
       <c r="E46">
-        <v>0.41260000000000002</v>
+        <v>-14.805999999999999</v>
       </c>
       <c r="F46">
-        <v>9.3071999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6907699999999997</v>
+      </c>
+      <c r="I46">
+        <v>4.9957616425899687E-6</v>
+      </c>
+      <c r="J46">
+        <v>7.6875620548884545</v>
+      </c>
+      <c r="K46">
+        <v>-11.356568273523351</v>
+      </c>
+      <c r="L46">
+        <v>1.9569106722409932</v>
+      </c>
+      <c r="M46">
+        <v>-3.4171631333940731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>7.2351000000000001</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>-3.8452999999999999</v>
+        <v>5.6668599999999998</v>
       </c>
       <c r="D47">
-        <v>1.2699999999999999E-2</v>
+        <v>-8.1054300000000001</v>
       </c>
       <c r="E47">
-        <v>-7.8935000000000004</v>
+        <v>-2.7417099999999999</v>
       </c>
       <c r="F47">
-        <v>5.1837999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.9872299999999998</v>
+      </c>
+      <c r="I47">
+        <v>-3.5834576078697111E-7</v>
+      </c>
+      <c r="J47">
+        <v>4.7302809225158171E-8</v>
+      </c>
+      <c r="K47">
+        <v>5.987317702691068</v>
+      </c>
+      <c r="L47">
+        <v>-12.206439310164102</v>
+      </c>
+      <c r="M47">
+        <v>1.861059269803492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>14.2707</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-5.9946000000000002</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3.6901000000000002</v>
+        <v>5.9743599999999999</v>
       </c>
       <c r="E48">
-        <v>-12.251200000000001</v>
+        <v>-11.824870000000001</v>
       </c>
       <c r="F48">
-        <v>7.8380999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0082800000000001</v>
+      </c>
+      <c r="I48">
+        <v>3.1741392790829437E-6</v>
+      </c>
+      <c r="J48">
+        <v>-4.1899673774992152E-7</v>
+      </c>
+      <c r="K48">
+        <v>4.2106160131616388E-6</v>
+      </c>
+      <c r="L48">
+        <v>9.2534905741399438</v>
+      </c>
+      <c r="M48">
+        <v>2.9185383724482263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>-0.92269999999999996</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-3.2578</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.3367</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>5.367</v>
+        <v>-7.5135800000000001</v>
       </c>
       <c r="F49">
-        <v>-11.7988</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.9408399999999999</v>
+      </c>
+      <c r="I49">
+        <v>4.4155097735920634E-6</v>
+      </c>
+      <c r="J49">
+        <v>-5.8286169091203988E-7</v>
+      </c>
+      <c r="K49">
+        <v>5.8573410057216613E-6</v>
+      </c>
+      <c r="L49">
+        <v>-7.3883711317890288E-6</v>
+      </c>
+      <c r="M49">
+        <v>0.73485526884741659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="B51" cm="1">
+      <c r="B51" s="6" cm="1">
         <f t="array" ref="B51:F55">MMULT(B39:F43,B45:F49)</f>
-        <v>2.0543879623999999</v>
-      </c>
-      <c r="C51">
-        <v>-10.553671185500001</v>
-      </c>
-      <c r="D51">
-        <v>6.0915968680999999</v>
-      </c>
-      <c r="E51">
-        <v>0.68087603620000003</v>
-      </c>
-      <c r="F51">
-        <v>8.1432828294000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>6.5176270474626463</v>
-      </c>
-      <c r="C52">
-        <v>-2.2977351748425545</v>
-      </c>
-      <c r="D52">
-        <v>1.3960847775845442</v>
-      </c>
-      <c r="E52">
-        <v>-4.3672109335853309</v>
-      </c>
-      <c r="F52">
-        <v>-2.9369695217493783</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>14.476339305383163</v>
-      </c>
-      <c r="C53">
-        <v>-6.1909881483177989</v>
-      </c>
-      <c r="D53">
-        <v>3.5832093309857802</v>
-      </c>
-      <c r="E53">
-        <v>-12.679526077955176</v>
-      </c>
-      <c r="F53">
-        <v>8.5362301690491851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>-0.79812427013693765</v>
-      </c>
-      <c r="C54">
-        <v>4.2696346877311138</v>
-      </c>
-      <c r="D54">
-        <v>0.74431494837527046</v>
-      </c>
-      <c r="E54">
-        <v>-0.79922329559711303</v>
-      </c>
-      <c r="F54">
-        <v>3.5470272590448442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>-2.6910522608631728</v>
-      </c>
-      <c r="C55">
-        <v>0.35810467166010196</v>
-      </c>
-      <c r="D55">
-        <v>1.6122502751004542</v>
-      </c>
-      <c r="E55">
-        <v>8.0830750241107356</v>
-      </c>
-      <c r="F55">
-        <v>-15.27974061342686</v>
+        <v>16.252481919019999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-12.193065414809999</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5.5138796439999749E-2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-14.191697613000001</v>
+      </c>
+      <c r="F51" s="6">
+        <v>5.6466432518899996</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="6" cm="1">
+        <f t="array" ref="I51:M55">MMULT(I45:M49,I39:M43)</f>
+        <v>-14.092306612939375</v>
+      </c>
+      <c r="J51" s="6">
+        <v>-9.8495717315640814</v>
+      </c>
+      <c r="K51" s="6">
+        <v>-13.449112012619505</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-11.435217056623312</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-6.2334462166886571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B52" s="6">
+        <v>4.9957616425899687E-6</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7.6875620548884545</v>
+      </c>
+      <c r="D52" s="6">
+        <v>-11.356568273523351</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1.9569106722409932</v>
+      </c>
+      <c r="F52" s="6">
+        <v>-3.4171631333940731</v>
+      </c>
+      <c r="I52" s="6">
+        <v>7.6296510378982214</v>
+      </c>
+      <c r="J52" s="6">
+        <v>-9.0078597471488386</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1.4937289223441836</v>
+      </c>
+      <c r="L52" s="6">
+        <v>6.9149915685193557</v>
+      </c>
+      <c r="M52" s="6">
+        <v>3.7650066244131333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="6">
+        <v>-3.5834576078697111E-7</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4.7302809225158171E-8</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5.987317702691068</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-12.206439310164102</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1.861059269803492</v>
+      </c>
+      <c r="I53" s="6">
+        <v>9.0847416317276883E-8</v>
+      </c>
+      <c r="J53" s="6">
+        <v>4.4135275316739611</v>
+      </c>
+      <c r="K53" s="6">
+        <v>-11.913995208069279</v>
+      </c>
+      <c r="L53" s="6">
+        <v>-4.3360404527556993</v>
+      </c>
+      <c r="M53" s="6">
+        <v>-2.8434087632081324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B54" s="6">
+        <v>3.1741392790829437E-6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-4.1899673774992152E-7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4.2106160131616388E-6</v>
+      </c>
+      <c r="E54" s="6">
+        <v>9.2534905741399438</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2.9185383724482263</v>
+      </c>
+      <c r="I54" s="6">
+        <v>-8.0470423840490273E-7</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1.0098116516447319E-6</v>
+      </c>
+      <c r="K54" s="6">
+        <v>9.2334663578286875</v>
+      </c>
+      <c r="L54" s="6">
+        <v>-2.0146251683369094</v>
+      </c>
+      <c r="M54" s="6">
+        <v>2.1975832531093236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B55" s="6">
+        <v>4.4155097735920634E-6</v>
+      </c>
+      <c r="C55" s="6">
+        <v>-5.8286169091203988E-7</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5.8573410057216613E-6</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-7.3883711317890288E-6</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.73485526884741659</v>
+      </c>
+      <c r="I55" s="6">
+        <v>-1.1194150961571631E-6</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1.4047377332102364E-6</v>
+      </c>
+      <c r="K55" s="6">
+        <v>-6.9031806907108981E-6</v>
+      </c>
+      <c r="L55" s="6">
+        <v>-0.5966870768569289</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.42892590506436529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57">
+        <v>-9.6319009999999992</v>
+      </c>
+      <c r="J57">
+        <v>-7.3820430000000004</v>
+      </c>
+      <c r="K57">
+        <v>0.49557299999999999</v>
+      </c>
+      <c r="L57">
+        <v>-1.0914900000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.88209700000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <v>5.8186349999999996</v>
+      </c>
+      <c r="J58">
+        <v>-10.099651</v>
+      </c>
+      <c r="K58">
+        <v>-4.200806</v>
+      </c>
+      <c r="L58">
+        <v>-1.286956</v>
+      </c>
+      <c r="M58">
+        <v>1.8706100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K59">
+        <v>-7.2884460000000004</v>
+      </c>
+      <c r="L59">
+        <v>-23.106953000000001</v>
+      </c>
+      <c r="M59">
+        <v>6.8809259999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.66282399999999997</v>
+      </c>
+      <c r="L60">
+        <v>-8.9800070000000005</v>
+      </c>
+      <c r="M60">
+        <v>1.1728449999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65">
+        <f>-I57-J58</f>
+        <v>19.731552000000001</v>
+      </c>
+      <c r="L65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65">
+        <f>I57*J58 - J57*I58</f>
+        <v>140.23225233785598</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65">
+        <f>K65^2 - 4 * N65</f>
+        <v>-171.59486502271989</v>
+      </c>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67">
+        <f>-K59-L60</f>
+        <v>16.268453000000001</v>
+      </c>
+      <c r="L67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67">
+        <f>K59*L60 - L59*K60</f>
+        <v>80.766139114394008</v>
+      </c>
+      <c r="Q67">
+        <f>K67^2 - 4 * N67</f>
+        <v>-58.401993444367008</v>
+      </c>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70">
+        <f>-K65 / 2</f>
+        <v>-9.8657760000000003</v>
+      </c>
+      <c r="I70">
+        <f>SQRT(-Q65) / 2</f>
+        <v>6.5497111581870522</v>
+      </c>
+    </row>
+    <row r="71" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <f>H70</f>
+        <v>-9.8657760000000003</v>
+      </c>
+      <c r="I71">
+        <f>-I70</f>
+        <v>-6.5497111581870522</v>
+      </c>
+    </row>
+    <row r="73" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73">
+        <f>-K67 / 2</f>
+        <v>-8.1342265000000005</v>
+      </c>
+      <c r="I73">
+        <f>SQRT(-Q67) / 2</f>
+        <v>3.8210598478814424</v>
+      </c>
+    </row>
+    <row r="74" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74">
+        <f>H73</f>
+        <v>-8.1342265000000005</v>
+      </c>
+      <c r="I74">
+        <f>-I73</f>
+        <v>-3.8210598478814424</v>
+      </c>
+    </row>
+    <row r="76" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76">
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
